--- a/ЗАВОДЫ/Останкино/2025/заказы/филиалы и опт/2025/08,25/12,08,25 Ост КИ филиалы/дв 12,08,25 днрсч ост ки.xlsx
+++ b/ЗАВОДЫ/Останкино/2025/заказы/филиалы и опт/2025/08,25/12,08,25 Ост КИ филиалы/дв 12,08,25 днрсч ост ки.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\ЗАВОДЫ\Останкино\2025\заказы\филиалы и опт\2025\08,25\12,08,25 Ост КИ филиалы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE316AED-8C19-460C-ADE9-B3555212A860}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BB5E2D4-A742-495C-99FD-1343A556AE69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1117,7 +1117,7 @@
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="U5" sqref="U5"/>
+      <selection pane="bottomRight" activeCell="U79" sqref="U79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1632,7 +1632,7 @@
       <c r="T6" s="4"/>
       <c r="U6" s="9"/>
       <c r="V6" s="9">
-        <f>(F6+O6+R6)/P6</f>
+        <f>(F6+O6+S6)/P6</f>
         <v>16.011904761904763</v>
       </c>
       <c r="W6" s="9">
@@ -1744,7 +1744,7 @@
       <c r="T7" s="4"/>
       <c r="U7" s="9"/>
       <c r="V7" s="9">
-        <f t="shared" ref="V7:V70" si="6">(F7+O7+R7)/P7</f>
+        <f t="shared" ref="V7:V70" si="6">(F7+O7+S7)/P7</f>
         <v>33.425735156396328</v>
       </c>
       <c r="W7" s="9">
@@ -1864,7 +1864,7 @@
       <c r="U8" s="9"/>
       <c r="V8" s="9">
         <f t="shared" si="6"/>
-        <v>15.998138461379945</v>
+        <v>14.20786723314226</v>
       </c>
       <c r="W8" s="9">
         <f t="shared" si="4"/>
@@ -2214,7 +2214,7 @@
       <c r="U11" s="9"/>
       <c r="V11" s="9">
         <f t="shared" si="6"/>
-        <v>16.004258553906396</v>
+        <v>14.018143214038712</v>
       </c>
       <c r="W11" s="9">
         <f t="shared" si="4"/>
@@ -4710,8 +4710,8 @@
       <c r="H33" s="9">
         <v>60</v>
       </c>
-      <c r="I33" s="9" t="s">
-        <v>38</v>
+      <c r="I33" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="J33" s="9"/>
       <c r="K33" s="9">
@@ -4742,7 +4742,7 @@
       </c>
       <c r="V33" s="9">
         <f t="shared" si="6"/>
-        <v>17.297297297297298</v>
+        <v>62.342342342342342</v>
       </c>
       <c r="W33" s="9">
         <f t="shared" si="4"/>
@@ -9067,7 +9067,7 @@
       <c r="T71" s="4"/>
       <c r="U71" s="9"/>
       <c r="V71" s="9">
-        <f t="shared" ref="V71:V108" si="29">(F71+O71+R71)/P71</f>
+        <f t="shared" ref="V71:V108" si="29">(F71+O71+S71)/P71</f>
         <v>17.777777777777779</v>
       </c>
       <c r="W71" s="9">
@@ -9421,7 +9421,7 @@
       <c r="U74" s="9"/>
       <c r="V74" s="9">
         <f t="shared" si="29"/>
-        <v>16.000017247128351</v>
+        <v>13.872871416909083</v>
       </c>
       <c r="W74" s="9">
         <f t="shared" si="27"/>
@@ -11220,7 +11220,7 @@
       </c>
       <c r="V90" s="9">
         <f t="shared" si="29"/>
-        <v>22.1875</v>
+        <v>48.229166666666671</v>
       </c>
       <c r="W90" s="9">
         <f t="shared" si="27"/>
